--- a/TestData/Interest_calculator.xlsx
+++ b/TestData/Interest_calculator.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
   <si>
     <t xml:space="preserve">Principal </t>
   </si>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -210,6 +210,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
@@ -573,7 +583,7 @@
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -599,7 +609,7 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="34" t="s">
         <v>14</v>
       </c>
     </row>
@@ -625,7 +635,7 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -651,7 +661,7 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="36" t="s">
         <v>14</v>
       </c>
     </row>
@@ -677,7 +687,7 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="37" t="s">
         <v>13</v>
       </c>
     </row>
